--- a/target/classes/excel/cpc_template.xlsx
+++ b/target/classes/excel/cpc_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3E3F1D-486E-401C-A155-E736A72F639D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D80321-E03E-464F-A61B-3309503AED82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>SirAlwaid</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7B3A19D3-48E2-4E00-84A6-199583D04EEA}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8DA0443C-4637-4EB2-8167-F0A63914D949}">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>SirAlwaid:</t>
         </r>
@@ -53,10 +53,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="C6")</t>
+jx:area(lastCell="F6")</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="col1" var="col1" direction="DOWN" lastCell="A3")</t>
+jx:each(items="s_col1" var="s_col1" direction="DOWN" lastCell="A3")</t>
         </r>
       </text>
     </comment>
@@ -104,7 +104,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="col2" var="col2" direction="DOWN" lastCell="B3")</t>
+jx:each(items="s_col2" var="s_col2" direction="DOWN" lastCell="B3")</t>
         </r>
       </text>
     </comment>
@@ -128,7 +128,56 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="col5" var="col5" direction="DOWN" lastCell="C3")</t>
+jx:each(items="s_col3" var="s_col3" direction="DOWN" lastCell="C3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{E7857D8B-B0A2-47FB-84F8-72B21777ED3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="s1_col1" var="s1_col1" lastCell="D3" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{B7B589D3-B8CB-485C-A785-A60A8F71AD82}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(direction="RIGHT" items="s" var="items" lastCell="F3")
+jx:each(direction="DOWN" items="items" var="obj" lastCell="F3")</t>
         </r>
       </text>
     </comment>
@@ -137,24 +186,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
   <si>
-    <t>${col1}</t>
-  </si>
-  <si>
-    <t>${col2}</t>
-  </si>
-  <si>
-    <t>${col5}</t>
-  </si>
-  <si>
     <t>Totale:</t>
   </si>
   <si>
     <t>Gran totale:</t>
+  </si>
+  <si>
+    <t>${obj}</t>
+  </si>
+  <si>
+    <t>${s_col1}</t>
+  </si>
+  <si>
+    <t>${s_col2}</t>
+  </si>
+  <si>
+    <t>${s_col3}</t>
+  </si>
+  <si>
+    <t>${s1_col1}</t>
+  </si>
+  <si>
+    <t>Colonna seconda tab:</t>
+  </si>
+  <si>
+    <t>Prima grid:</t>
+  </si>
+  <si>
+    <t>Seconda grid:</t>
   </si>
 </sst>
 </file>
@@ -241,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -258,19 +322,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,57 +701,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="B5" s="9">
         <f>SUM(B3)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="10">
         <f>SUM(C3)</f>
         <v>0</v>
       </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <f>SUM(B5+C5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
   </sheetData>

--- a/target/classes/excel/cpc_template.xlsx
+++ b/target/classes/excel/cpc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D80321-E03E-464F-A61B-3309503AED82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E6326E-4A8A-4D4F-9354-CD9C888784DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="14670" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="F6")</t>
+jx:area(lastCell="F9")</t>
         </r>
       </text>
     </comment>
@@ -178,6 +178,79 @@
           <t xml:space="preserve">
 jx:each(direction="RIGHT" items="s" var="items" lastCell="F3")
 jx:each(direction="DOWN" items="items" var="obj" lastCell="F3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{B9DEFBB9-4182-44FD-839E-D1E2DA8B4A67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="s1" var="items" lastCell="F6" direction="RIGHT")
+jx:each(items="items" var="obj" lastCell="F6" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{0DBB3505-4A37-4ED6-A2E2-82848410F52E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(direction="DOWN" items="s1_col1" var="s1_col1" lastCell="A8")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{572772EA-ECB4-41D1-8766-5786CB2C492C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(direction="DOWN" items="s1_col5" var="s1_col5" lastCell="B8")</t>
         </r>
       </text>
     </comment>
@@ -186,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -219,6 +292,9 @@
   </si>
   <si>
     <t>Seconda grid:</t>
+  </si>
+  <si>
+    <t>${s1_col5}</t>
   </si>
 </sst>
 </file>
@@ -372,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -387,6 +463,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,7 +782,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,9 +844,20 @@
         <f>SUM(B5+C5)</f>
         <v>0</v>
       </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>

--- a/target/classes/excel/cpc_template.xlsx
+++ b/target/classes/excel/cpc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E6326E-4A8A-4D4F-9354-CD9C888784DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66010A3-81DF-4B29-B2FA-91D15DF907D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="F9")</t>
+jx:area(lastCell="F10")</t>
         </r>
       </text>
     </comment>
@@ -132,30 +132,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{E7857D8B-B0A2-47FB-84F8-72B21777ED3B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="s1_col1" var="s1_col1" lastCell="D3" direction="DOWN")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F3" authorId="0" shapeId="0" xr:uid="{B7B589D3-B8CB-485C-A785-A60A8F71AD82}">
       <text>
         <r>
@@ -251,6 +227,55 @@
           </rPr>
           <t xml:space="preserve">
 jx:each(direction="DOWN" items="s1_col5" var="s1_col5" lastCell="B8")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{EC0A8595-075B-4FB1-ABDB-1D498A8638E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(lastCell="F9" direction="RIGHT" items="s2_columns" var="headers")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{A90F0D92-99A5-4450-9CFE-139A194A6CAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="s2" var="items" lastCell="F10" direction="RIGHT")
+jx:each(items="items" var="obj" lastCell="F10" direction="DOWN")</t>
         </r>
       </text>
     </comment>
@@ -259,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -285,9 +310,6 @@
     <t>${s1_col1}</t>
   </si>
   <si>
-    <t>Colonna seconda tab:</t>
-  </si>
-  <si>
     <t>Prima grid:</t>
   </si>
   <si>
@@ -295,6 +317,18 @@
   </si>
   <si>
     <t>${s1_col5}</t>
+  </si>
+  <si>
+    <t>Terza grid:</t>
+  </si>
+  <si>
+    <t>${headers.getTxt()}</t>
+  </si>
+  <si>
+    <t>Colonne prima grid:</t>
+  </si>
+  <si>
+    <t>Colonne seconda grid:</t>
   </si>
 </sst>
 </file>
@@ -355,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +414,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -444,11 +484,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -465,6 +533,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,12 +867,12 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,14 +885,12 @@
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="13"/>
+      <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -831,8 +902,8 @@
         <f>SUM(C3)</f>
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,23 +915,40 @@
         <f>SUM(B5+C5)</f>
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
+      <c r="F9" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <f>SUM(A8)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/excel/cpc_template.xlsx
+++ b/target/classes/excel/cpc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66010A3-81DF-4B29-B2FA-91D15DF907D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E70C12-1343-4F15-A959-611207333FAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="570" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="15">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -421,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -506,17 +506,28 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -536,8 +547,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,7 +867,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,13 +943,13 @@
       <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="21" t="s">
         <v>12</v>
       </c>
     </row>

--- a/target/classes/excel/cpc_template.xlsx
+++ b/target/classes/excel/cpc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E70C12-1343-4F15-A959-611207333FAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC49530-3A04-43FB-8747-3B46B1483761}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="2850" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,79 +56,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="F10")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{32841E26-8CE3-4FA3-9155-8FB29DE1A6B9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="s_col1" var="s_col1" direction="DOWN" lastCell="A3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{578C2700-A1B1-4001-A041-6ADCA2BB119C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="s_col2" var="s_col2" direction="DOWN" lastCell="B3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{EB1E41DB-FD3F-4D94-9A4C-FCE6386AED32}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="s_col3" var="s_col3" direction="DOWN" lastCell="C3")</t>
+jx:area(lastCell="F12")</t>
         </r>
       </text>
     </comment>
@@ -157,6 +85,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{32841E26-8CE3-4FA3-9155-8FB29DE1A6B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="s_col1" var="s_col1" direction="DOWN" lastCell="A4")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{578C2700-A1B1-4001-A041-6ADCA2BB119C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="s_col2" var="s_col2" direction="DOWN" lastCell="B4")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{EB1E41DB-FD3F-4D94-9A4C-FCE6386AED32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="s_col3" var="s_col3" direction="DOWN" lastCell="C4")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F6" authorId="0" shapeId="0" xr:uid="{B9DEFBB9-4182-44FD-839E-D1E2DA8B4A67}">
       <text>
         <r>
@@ -179,54 +179,6 @@
           <t xml:space="preserve">
 jx:each(items="s1" var="items" lastCell="F6" direction="RIGHT")
 jx:each(items="items" var="obj" lastCell="F6" direction="DOWN")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{0DBB3505-4A37-4ED6-A2E2-82848410F52E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(direction="DOWN" items="s1_col1" var="s1_col1" lastCell="A8")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{572772EA-ECB4-41D1-8766-5786CB2C492C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(direction="DOWN" items="s1_col5" var="s1_col5" lastCell="B8")</t>
         </r>
       </text>
     </comment>
@@ -251,6 +203,54 @@
           </rPr>
           <t xml:space="preserve">
 jx:each(lastCell="F9" direction="RIGHT" items="s2_columns" var="headers")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{0DBB3505-4A37-4ED6-A2E2-82848410F52E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(direction="DOWN" items="s1_col1" var="s1_col1" lastCell="A10")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{572772EA-ECB4-41D1-8766-5786CB2C492C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(direction="DOWN" items="s1_col5" var="s1_col5" lastCell="B10")</t>
         </r>
       </text>
     </comment>
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -864,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,51 +880,45 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>6</v>
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="13"/>
       <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
-        <f>SUM(B3)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <f>SUM(C3)</f>
-        <v>0</v>
-      </c>
       <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7">
-        <f>SUM(B5+C5)</f>
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <f>SUM(B4)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <f>SUM(C4)</f>
         <v>0</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -932,34 +926,46 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7">
+        <f>SUM(B6+C6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <f>SUM(A8)</f>
-        <v>0</v>
+      <c r="A10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <f>SUM(A10)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/excel/cpc_template.xlsx
+++ b/target/classes/excel/cpc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC49530-3A04-43FB-8747-3B46B1483761}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A62406-C118-4ADA-970B-DF0C58ED42D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -867,7 +867,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/excel/cpc_template.xlsx
+++ b/target/classes/excel/cpc_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A62406-C118-4ADA-970B-DF0C58ED42D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04859BFD-EBD4-4C03-9879-94F11701FE1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="2025" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,16 +40,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -210,16 +200,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -232,16 +212,6 @@
     </comment>
     <comment ref="B10" authorId="0" shapeId="0" xr:uid="{572772EA-ECB4-41D1-8766-5786CB2C492C}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -867,7 +837,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/excel/cpc_template.xlsx
+++ b/target/classes/excel/cpc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04859BFD-EBD4-4C03-9879-94F11701FE1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D18EF24-13E6-4914-9A9F-50804E537664}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(lastCell="F9" direction="RIGHT" items="s2_columns" var="headers")</t>
+jx:each(lastCell="F9" direction="RIGHT" items="s2" var="headers")</t>
         </r>
       </text>
     </comment>

--- a/target/classes/excel/cpc_template.xlsx
+++ b/target/classes/excel/cpc_template.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8DA0443C-4637-4EB2-8167-F0A63914D949}">

--- a/target/classes/excel/cpc_template.xlsx
+++ b/target/classes/excel/cpc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D18EF24-13E6-4914-9A9F-50804E537664}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F16166E-DFC9-49A5-B0BC-91BCF549801B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(direction="RIGHT" items="s" var="items" lastCell="F3")
+jx:each(direction="RIGHT" items="e" var="items" lastCell="F3")
 jx:each(direction="DOWN" items="items" var="obj" lastCell="F3")</t>
         </r>
       </text>
@@ -95,7 +95,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="s_col1" var="s_col1" direction="DOWN" lastCell="A4")</t>
+jx:each(items="e_col1" var="s_col1" direction="DOWN" lastCell="A4")</t>
         </r>
       </text>
     </comment>
@@ -119,7 +119,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="s_col2" var="s_col2" direction="DOWN" lastCell="B4")</t>
+jx:each(items="e_col2" var="s_col2" direction="DOWN" lastCell="B4")</t>
         </r>
       </text>
     </comment>
@@ -143,7 +143,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="s_col3" var="s_col3" direction="DOWN" lastCell="C4")</t>
+jx:each(items="e_col3" var="s_col3" direction="DOWN" lastCell="C4")</t>
         </r>
       </text>
     </comment>
@@ -167,7 +167,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="s1" var="items" lastCell="F6" direction="RIGHT")
+jx:each(items="e1" var="items" lastCell="F6" direction="RIGHT")
 jx:each(items="items" var="obj" lastCell="F6" direction="DOWN")</t>
         </r>
       </text>
@@ -192,7 +192,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(lastCell="F9" direction="RIGHT" items="s2" var="headers")</t>
+jx:each(lastCell="F9" direction="RIGHT" items="e2" var="headers")</t>
         </r>
       </text>
     </comment>
@@ -206,7 +206,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(direction="DOWN" items="s1_col1" var="s1_col1" lastCell="A10")</t>
+jx:each(direction="DOWN" items="e1_col1" var="s1_col1" lastCell="A10")</t>
         </r>
       </text>
     </comment>
@@ -220,7 +220,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(direction="DOWN" items="s1_col5" var="s1_col5" lastCell="B10")</t>
+jx:each(direction="DOWN" items="e1_col5" var="s1_col5" lastCell="B10")</t>
         </r>
       </text>
     </comment>
@@ -244,7 +244,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="s2" var="items" lastCell="F10" direction="RIGHT")
+jx:each(items="e2" var="items" lastCell="F10" direction="RIGHT")
 jx:each(items="items" var="obj" lastCell="F10" direction="DOWN")</t>
         </r>
       </text>
@@ -837,7 +837,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
